--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-observation-physicalexam-bodysite-cs.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-observation-physicalexam-bodysite-cs.xlsx
@@ -41,7 +41,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Observation PhysicalExam BodySite</t>
+    <t>JP Core Observation PhysicalExam BodySite CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
